--- a/biology/Botanique/Podolobium_ilicifolium/Podolobium_ilicifolium.xlsx
+++ b/biology/Botanique/Podolobium_ilicifolium/Podolobium_ilicifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Podolobium ilicifolium est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Australie. C'est l'unique espèce acceptée du genre Podolobium (genre monotypique).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez cette espèce, les feuilles sont opposées, jusqu'à 10 cm de long et 3 cm de large avec un contour général ovale à étroit mais avec de fortes lobes ; chaque lobe se termine par une pointe piquante (ressemblant légèrement aux feuilles de houx) ; de couleur vert foncé à bleu-vert ; le feuillage est quelque peu épineux[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez cette espèce, les feuilles sont opposées, jusqu'à 10 cm de long et 3 cm de large avec un contour général ovale à étroit mais avec de fortes lobes ; chaque lobe se termine par une pointe piquante (ressemblant légèrement aux feuilles de houx) ; de couleur vert foncé à bleu-vert ; le feuillage est quelque peu épineux.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Podolobium ilicifolium a été décrit pour la première fois en 1995 par Michael Crisp et Peter Weston et la description a été publiée dans Advances in Legume Systematics.
 </t>
@@ -574,11 +590,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>selon [2] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>selon  : 
 Oxylobium ilicifolium (Andrews) Domin
-Pultenaea ilicifolia Andrews[4]</t>
+Pultenaea ilicifolia Andrews</t>
         </is>
       </c>
     </row>
